--- a/RUDN/Importance/Varible_in_South America.xlsx
+++ b/RUDN/Importance/Varible_in_South America.xlsx
@@ -14,840 +14,846 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Children in employment, female (% of female children ages 7-14)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
     <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>ARI treatment (% of children under 5 taken to a health provider)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1221,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.031545739620924</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1229,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02733964286744595</v>
+        <v>0.01713709719479084</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1237,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02313354425132275</v>
+        <v>0.0161290317773819</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1245,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02208201959729195</v>
+        <v>0.0161290317773819</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1253,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02208201959729195</v>
+        <v>0.01411290280520916</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1261,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01366982143372297</v>
+        <v>0.01310483831912279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1269,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01366982143372297</v>
+        <v>0.01310483831912279</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1277,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01261829677969217</v>
+        <v>0.01310483831912279</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1285,7 +1291,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01261829677969217</v>
+        <v>0.01209677383303642</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1293,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01261829677969217</v>
+        <v>0.01209677383303642</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1301,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01156677212566137</v>
+        <v>0.01108870934695005</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1309,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01156677212566137</v>
+        <v>0.01108870934695005</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1317,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01051524747163057</v>
+        <v>0.01008064486086369</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1325,7 +1331,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01051524747163057</v>
+        <v>0.01008064486086369</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1333,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01051524747163057</v>
+        <v>0.01008064486086369</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1341,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01051524747163057</v>
+        <v>0.01008064486086369</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1349,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.009463722817599773</v>
+        <v>0.01008064486086369</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1357,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.009463722817599773</v>
+        <v>0.01008064486086369</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1365,7 +1371,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.009463722817599773</v>
+        <v>0.01008064486086369</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1373,7 +1379,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.009463722817599773</v>
+        <v>0.009072580374777317</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1381,7 +1387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.008412197232246399</v>
+        <v>0.009072580374777317</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1389,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.008412197232246399</v>
+        <v>0.009072580374777317</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1397,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.008412197232246399</v>
+        <v>0.008064515888690948</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1405,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.008412197232246399</v>
+        <v>0.008064515888690948</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1413,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.008412197232246399</v>
+        <v>0.008064515888690948</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1421,7 +1427,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.008412197232246399</v>
+        <v>0.008064515888690948</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1429,7 +1435,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.008412197232246399</v>
+        <v>0.00705645140260458</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1437,7 +1443,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.007360673043876886</v>
+        <v>0.00705645140260458</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1445,7 +1451,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.007360673043876886</v>
+        <v>0.00705645140260458</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1453,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.007360673043876886</v>
+        <v>0.00705645140260458</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1461,7 +1467,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.007360673043876886</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1469,7 +1475,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.007360673043876886</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1477,7 +1483,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.007360673043876886</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1485,7 +1491,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.007360673043876886</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1493,7 +1499,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1501,7 +1507,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1509,7 +1515,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1517,7 +1523,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1525,7 +1531,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1533,7 +1539,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1541,7 +1547,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1549,7 +1555,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1557,7 +1563,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1565,7 +1571,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1573,7 +1579,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.006309148389846087</v>
+        <v>0.006048386916518211</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1581,7 +1587,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1589,7 +1595,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1597,7 +1603,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1605,7 +1611,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1613,7 +1619,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1621,7 +1627,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1629,7 +1635,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1637,7 +1643,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1645,7 +1651,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1653,7 +1659,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1661,7 +1667,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1669,7 +1675,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1677,7 +1683,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.005257623735815287</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1685,7 +1691,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1693,7 +1699,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1701,7 +1707,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1709,7 +1715,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1717,7 +1723,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1725,7 +1731,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1733,7 +1739,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1741,7 +1747,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1749,7 +1755,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1757,7 +1763,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1765,7 +1771,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1773,7 +1779,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1781,7 +1787,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1789,7 +1795,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1797,7 +1803,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1805,7 +1811,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1813,7 +1819,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.004206098616123199</v>
+        <v>0.005040322430431843</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1821,7 +1827,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.004206098616123199</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1829,7 +1835,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.004206098616123199</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1837,7 +1843,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.004206098616123199</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1845,7 +1851,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.004206098616123199</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1853,7 +1859,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.004206098616123199</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1861,7 +1867,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.004206098616123199</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1869,7 +1875,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.004206098616123199</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1877,7 +1883,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.004206098616123199</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1885,7 +1891,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.004206098616123199</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1893,7 +1899,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1901,7 +1907,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1909,7 +1915,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1917,7 +1923,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1925,7 +1931,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1933,7 +1939,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1941,7 +1947,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1949,7 +1955,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1957,7 +1963,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1965,7 +1971,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1973,7 +1979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1981,7 +1987,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1989,7 +1995,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1997,7 +2003,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2005,7 +2011,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2013,7 +2019,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2021,7 +2027,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2029,7 +2035,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.003154574194923043</v>
+        <v>0.004032257944345474</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2037,7 +2043,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2045,7 +2051,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2053,7 +2059,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2061,7 +2067,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2069,7 +2075,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2077,7 +2083,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2085,7 +2091,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2093,7 +2099,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2101,7 +2107,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2109,7 +2115,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2117,7 +2123,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2125,7 +2131,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2133,7 +2139,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2141,7 +2147,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2149,7 +2155,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2157,7 +2163,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2165,7 +2171,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2173,7 +2179,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2181,7 +2187,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2189,7 +2195,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.003154574194923043</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2197,7 +2203,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2205,7 +2211,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2213,7 +2219,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2221,7 +2227,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2229,7 +2235,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2237,7 +2243,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2245,7 +2251,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2253,7 +2259,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2261,7 +2267,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2269,7 +2275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2277,7 +2283,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2285,7 +2291,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2293,7 +2299,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0021030493080616</v>
+        <v>0.003024193458259106</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2301,7 +2307,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2309,7 +2315,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2317,7 +2323,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2325,7 +2331,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2333,7 +2339,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2341,7 +2347,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2349,7 +2355,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2357,7 +2363,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2365,7 +2371,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2373,7 +2379,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2381,7 +2387,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2389,7 +2395,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2397,7 +2403,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2405,7 +2411,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2413,7 +2419,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2421,7 +2427,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2429,7 +2435,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2437,7 +2443,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2445,7 +2451,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2453,7 +2459,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2461,7 +2467,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2469,7 +2475,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2477,7 +2483,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2485,7 +2491,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2493,7 +2499,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2501,7 +2507,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2509,7 +2515,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2517,7 +2523,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2525,7 +2531,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2533,7 +2539,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2541,7 +2547,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2549,7 +2555,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2557,7 +2563,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2565,7 +2571,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2573,7 +2579,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2581,7 +2587,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2589,7 +2595,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2597,7 +2603,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2605,7 +2611,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2613,7 +2619,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2621,7 +2627,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2629,7 +2635,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2637,7 +2643,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2645,7 +2651,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2653,7 +2659,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2661,7 +2667,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2669,7 +2675,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2677,7 +2683,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0021030493080616</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2685,7 +2691,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2693,7 +2699,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2701,7 +2707,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2709,7 +2715,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2717,7 +2723,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2725,7 +2731,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2733,7 +2739,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2741,7 +2747,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2749,7 +2755,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2757,7 +2763,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2765,7 +2771,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2773,7 +2779,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2781,7 +2787,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2789,7 +2795,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2797,7 +2803,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2805,7 +2811,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.0010515246540308</v>
+        <v>0.002016128972172737</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2813,7 +2819,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2821,7 +2827,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2829,7 +2835,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2837,7 +2843,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2845,7 +2851,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2853,7 +2859,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2861,7 +2867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2869,7 +2875,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2877,7 +2883,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2885,7 +2891,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2893,7 +2899,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2901,7 +2907,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2909,7 +2915,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2917,7 +2923,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2925,7 +2931,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2933,7 +2939,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2941,7 +2947,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2949,7 +2955,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2957,7 +2963,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2965,7 +2971,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2973,7 +2979,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2981,7 +2987,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2989,7 +2995,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2997,7 +3003,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3005,7 +3011,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3013,7 +3019,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3021,7 +3027,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3029,7 +3035,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3037,7 +3043,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3045,7 +3051,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3053,7 +3059,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3061,7 +3067,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3069,7 +3075,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3077,7 +3083,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3085,7 +3091,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3093,7 +3099,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3101,7 +3107,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3109,7 +3115,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3117,7 +3123,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3125,7 +3131,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3133,7 +3139,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3141,7 +3147,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3149,7 +3155,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3157,7 +3163,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3165,7 +3171,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3173,7 +3179,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3181,7 +3187,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3189,7 +3195,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3197,7 +3203,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3205,7 +3211,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3213,7 +3219,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3221,7 +3227,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3229,7 +3235,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3237,7 +3243,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3245,7 +3251,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3253,7 +3259,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3261,7 +3267,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3269,7 +3275,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3277,7 +3283,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3285,7 +3291,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3293,7 +3299,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3301,7 +3307,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3309,7 +3315,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3317,7 +3323,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3325,7 +3331,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3333,7 +3339,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3341,7 +3347,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3349,7 +3355,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3357,7 +3363,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3365,7 +3371,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3373,7 +3379,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3381,7 +3387,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3389,7 +3395,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3397,7 +3403,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3405,7 +3411,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3413,7 +3419,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3421,7 +3427,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3429,7 +3435,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3437,7 +3443,23 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.0010515246540308</v>
+        <v>0.001008064486086369</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.001008064486086369</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.001008064486086369</v>
       </c>
     </row>
   </sheetData>
